--- a/biology/Biochimie/Discorhabdine/Discorhabdine.xlsx
+++ b/biology/Biochimie/Discorhabdine/Discorhabdine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les discorhabdines sont une famille de molécules spiro-hétérocycliques, appartenant elle-même à la famille des alcaloïdes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les discorhabdines sont une famille de molécules spiro-hétérocycliques, appartenant elle-même à la famille des alcaloïdes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces composés ont été découverts principalement chez certaines espèces d'éponges comme Latrunculia brevis (sv), Batzella melanos (sv) ou les espèces du genre Zyzzya (nl)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces composés ont été découverts principalement chez certaines espèces d'éponges comme Latrunculia brevis (sv), Batzella melanos (sv) ou les espèces du genre Zyzzya (nl).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>On leur connaît plusieurs formes, baptisées discorhabdine A, B, C, D et E. Leurs formules brutes sont[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On leur connaît plusieurs formes, baptisées discorhabdine A, B, C, D et E. Leurs formules brutes sont :
 D.A : C18H14BrN3O2S
 D.B : C18H12BrN3O2S
 D.C : C18H13BrN2N3
@@ -577,9 +593,11 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors des études menées sur Latrunculia austini (sv), une équipe de chercheurs a mis en évidence le fait que l'une des formes de discorhabdine, présente dans l'éponge, était susceptible d'avoir une activité anticancéreuse sur certaines manifestations du cancer du pancréas[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors des études menées sur Latrunculia austini (sv), une équipe de chercheurs a mis en évidence le fait que l'une des formes de discorhabdine, présente dans l'éponge, était susceptible d'avoir une activité anticancéreuse sur certaines manifestations du cancer du pancréas.
 </t>
         </is>
       </c>
